--- a/script/modules/data/resources/driver_prices.xlsx
+++ b/script/modules/data/resources/driver_prices.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2002,6 +2002,72 @@
         <v>9.699999999999999</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44042.91666666666</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="P24" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T24" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="V24" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/script/modules/data/resources/driver_prices.xlsx
+++ b/script/modules/data/resources/driver_prices.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2068,6 +2068,72 @@
         <v>9.699999999999999</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44042.95833333334</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K25" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T25" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="V25" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/script/modules/data/resources/driver_prices.xlsx
+++ b/script/modules/data/resources/driver_prices.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,11 @@
           <t>K. Raikkonen</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>N. Hulkenberg</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -615,6 +620,7 @@
         <v>10</v>
       </c>
       <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -681,6 +687,7 @@
         <v>8</v>
       </c>
       <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -747,6 +754,7 @@
         <v>13</v>
       </c>
       <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -813,6 +821,7 @@
         <v>16</v>
       </c>
       <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -879,6 +888,7 @@
         <v>21</v>
       </c>
       <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -945,6 +955,7 @@
         <v>16</v>
       </c>
       <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1011,6 +1022,7 @@
         <v>14</v>
       </c>
       <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1077,6 +1089,7 @@
         <v>16</v>
       </c>
       <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1143,6 +1156,7 @@
         <v>19</v>
       </c>
       <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1209,6 +1223,7 @@
         <v>16</v>
       </c>
       <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1275,6 +1290,7 @@
         <v>16</v>
       </c>
       <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1341,6 +1357,7 @@
         <v>18</v>
       </c>
       <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1407,6 +1424,7 @@
         <v>18</v>
       </c>
       <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1473,6 +1491,7 @@
         <v>19</v>
       </c>
       <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1539,6 +1558,7 @@
         <v>23</v>
       </c>
       <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1605,6 +1625,7 @@
         <v>28</v>
       </c>
       <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1671,6 +1692,7 @@
         <v>25</v>
       </c>
       <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1737,6 +1759,7 @@
         <v>29</v>
       </c>
       <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1803,6 +1826,7 @@
         <v>31</v>
       </c>
       <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1869,6 +1893,7 @@
         <v>27</v>
       </c>
       <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1935,6 +1960,7 @@
         <v>23</v>
       </c>
       <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -2001,6 +2027,7 @@
       <c r="V23" t="n">
         <v>9.699999999999999</v>
       </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -2067,6 +2094,7 @@
       <c r="V24" t="n">
         <v>9.699999999999999</v>
       </c>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -2132,6 +2160,74 @@
       </c>
       <c r="V25" t="n">
         <v>9.699999999999999</v>
+      </c>
+      <c r="W25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44046.91666666666</v>
+      </c>
+      <c r="B26" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D26" t="n">
+        <v>26</v>
+      </c>
+      <c r="E26" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="P26" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T26" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="V26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="W26" t="n">
+        <v>9.800000000000001</v>
       </c>
     </row>
   </sheetData>
